--- a/1_data_processing/Exports/project_view_table.xlsx
+++ b/1_data_processing/Exports/project_view_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,60 +436,55 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>project_name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>project_name</t>
+          <t>project_number</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>project_number</t>
+          <t>acquisition_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>acquisition_date</t>
+          <t>number_3l_code</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>number_3l_code</t>
+          <t>project_deal_type_id</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>project_deal_type_id</t>
+          <t>project_group_id</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>project_group_id</t>
+          <t>project_status_id</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>project_status_id</t>
+          <t>company_id</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>company_id</t>
+          <t>WTG_numbers</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>WTG_numbers</t>
+          <t>kWs</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>kWs</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>months_acquired</t>
         </is>
@@ -499,56 +494,53 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>17</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Harrienstedt</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Harrienstedt</t>
+          <t>003</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>2019-04-13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2019-04-13</t>
+          <t>HAS</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>HAS</t>
+          <t>Share</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Share</t>
+          <t>RW 1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>RW 1</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
           <t>1 Operating</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="I2" t="n">
         <v>19</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>V70816 (18971);V70815 (18970);V70817 (18967);V70813 (18972);V70814 (18966)</t>
         </is>
       </c>
+      <c r="K2" t="n">
+        <v>7500</v>
+      </c>
       <c r="L2" t="n">
-        <v>7500</v>
-      </c>
-      <c r="M2" t="n">
         <v>29</v>
       </c>
     </row>
@@ -556,56 +548,53 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>21</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Holtum</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Holtum</t>
+          <t>005</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>2019-09-02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2019-09-02</t>
+          <t>HOL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>HOL</t>
+          <t>Asset</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Asset</t>
+          <t>RW 1</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>RW 1</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
           <t>1 Operating</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="I3" t="n">
         <v>10</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>V18321;V18320</t>
         </is>
       </c>
+      <c r="K3" t="n">
+        <v>3300</v>
+      </c>
       <c r="L3" t="n">
-        <v>3300</v>
-      </c>
-      <c r="M3" t="n">
         <v>24</v>
       </c>
     </row>
@@ -613,56 +602,53 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>22</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jeesewitz</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jeesewitz</t>
+          <t>007</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>2019-09-02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2019-09-02</t>
+          <t>JES</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>JES</t>
+          <t>Share</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Share</t>
+          <t>RW 1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>RW 1</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
           <t>1 Operating</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="I4" t="n">
         <v>11</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>NX1103;NX1107</t>
         </is>
       </c>
+      <c r="K4" t="n">
+        <v>2600</v>
+      </c>
       <c r="L4" t="n">
-        <v>2600</v>
-      </c>
-      <c r="M4" t="n">
         <v>24</v>
       </c>
     </row>
@@ -670,56 +656,53 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>16</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mettlach</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mettlach</t>
+          <t>002</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>2019-04-18</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2019-04-18</t>
+          <t>MET</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MET</t>
+          <t>Share</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Share</t>
+          <t>RW 1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>RW 1</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
           <t>1 Operating</t>
         </is>
       </c>
-      <c r="J5" t="n">
+      <c r="I5" t="n">
         <v>9</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>E701302;E701306;E701304;E701303;E701305</t>
         </is>
       </c>
+      <c r="K5" t="n">
+        <v>9000</v>
+      </c>
       <c r="L5" t="n">
-        <v>9000</v>
-      </c>
-      <c r="M5" t="n">
         <v>29</v>
       </c>
     </row>
@@ -727,56 +710,53 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>20</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Salingen</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Salingen</t>
+          <t>004 B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>004 B</t>
+          <t>2019-04-16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2019-04-16</t>
+          <t>SAL</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SAL</t>
+          <t>Asset</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Asset</t>
+          <t>RW 1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>RW 1</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
           <t>1 Operating</t>
         </is>
       </c>
-      <c r="J6" t="n">
+      <c r="I6" t="n">
         <v>18</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>15560899;15560898</t>
         </is>
       </c>
+      <c r="K6" t="n">
+        <v>3000</v>
+      </c>
       <c r="L6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="M6" t="n">
         <v>29</v>
       </c>
     </row>
@@ -784,56 +764,53 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>15</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Schackensleben</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Schackensleben</t>
+          <t>004 A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>004 A</t>
+          <t>2019-04-16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2019-04-16</t>
+          <t>SSA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SSA</t>
+          <t>Asset</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Asset</t>
+          <t>RW 1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>RW 1</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
           <t>1 Operating</t>
         </is>
       </c>
-      <c r="J7" t="n">
+      <c r="I7" t="n">
         <v>18</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>15550893;15550894;15550895;15550896;15550897;15550892</t>
         </is>
       </c>
+      <c r="K7" t="n">
+        <v>9000</v>
+      </c>
       <c r="L7" t="n">
-        <v>9000</v>
-      </c>
-      <c r="M7" t="n">
         <v>29</v>
       </c>
     </row>
@@ -841,56 +818,53 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>14</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sebbenhausen-Schweringen</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sebbenhausen-Schweringen</t>
+          <t>010</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>010</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>SEB</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SEB</t>
+          <t>Share</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Share</t>
+          <t>RW 1</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>RW 1</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
           <t>1 Operating</t>
         </is>
       </c>
-      <c r="J8" t="n">
+      <c r="I8" t="n">
         <v>13</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>V18395;V18393;V18385;V18386;V18394;V18410;V18387;V18396</t>
         </is>
       </c>
+      <c r="K8" t="n">
+        <v>16000</v>
+      </c>
       <c r="L8" t="n">
-        <v>16000</v>
-      </c>
-      <c r="M8" t="n">
         <v>13</v>
       </c>
     </row>
@@ -898,56 +872,53 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>10</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Waldow</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Waldow</t>
+          <t>001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>WLD</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>WLD</t>
+          <t>Asset</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Asset</t>
+          <t>RW 1</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>RW 1</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
           <t>1 Operating</t>
         </is>
       </c>
-      <c r="J9" t="n">
+      <c r="I9" t="n">
         <v>15</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>V16899;V16903;V17651;V16900;V16897;V16902;V16898;V16905;V17650;V16896;V17652</t>
         </is>
       </c>
+      <c r="K9" t="n">
+        <v>22000</v>
+      </c>
       <c r="L9" t="n">
-        <v>22000</v>
-      </c>
-      <c r="M9" t="n">
         <v>21</v>
       </c>
     </row>
@@ -955,56 +926,53 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>11</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Watzerath</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Watzerath</t>
+          <t>008</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>008</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>WAT</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>Asset</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Asset</t>
+          <t>RW 1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>RW 1</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
           <t>1 Operating</t>
         </is>
       </c>
-      <c r="J10" t="n">
+      <c r="I10" t="n">
         <v>17</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>V28259;V28249;V28251;V28252;V28253;V28255;V28250;V28247;V28257;V28258;V28256;V28248;V28254</t>
         </is>
       </c>
+      <c r="K10" t="n">
+        <v>26000</v>
+      </c>
       <c r="L10" t="n">
-        <v>26000</v>
-      </c>
-      <c r="M10" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1012,56 +980,53 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>18</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Zodel</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Zodel</t>
+          <t>009</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>009</t>
+          <t>2020-04-24</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2020-04-24</t>
+          <t>ZOD</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ZOD</t>
+          <t>Share</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Share</t>
+          <t>RW 1</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>RW 1</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
           <t>1 Operating</t>
         </is>
       </c>
-      <c r="J11" t="n">
+      <c r="I11" t="n">
         <v>16</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>S2300949;S2300948;S2300950</t>
         </is>
       </c>
+      <c r="K11" t="n">
+        <v>6900</v>
+      </c>
       <c r="L11" t="n">
-        <v>6900</v>
-      </c>
-      <c r="M11" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1069,56 +1034,53 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>9</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Zörbig</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Zörbig</t>
+          <t>006</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>2019-09-19</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2019-09-19</t>
+          <t>ZRB</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ZRB</t>
+          <t>Asset</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Asset</t>
+          <t>RW 1</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>RW 1</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
           <t>1 Operating</t>
         </is>
       </c>
-      <c r="J12" t="n">
+      <c r="I12" t="n">
         <v>14</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>E70791;E70792;E701249;E66093;E701250;E70793;E701251;E70789;E70790;V11842;V17153;V17152;V13985;V13984;V11897;V11896;V11930;E70788</t>
         </is>
       </c>
+      <c r="K12" t="n">
+        <v>30250</v>
+      </c>
       <c r="L12" t="n">
-        <v>30250</v>
-      </c>
-      <c r="M12" t="n">
         <v>24</v>
       </c>
     </row>
